--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2377533.896397392</v>
+        <v>2481713.530848462</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4231613584432</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>183.6495385389123</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.77117397290287</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,13 +876,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>113.688337382603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>218.1690567639045</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>21.06047827574903</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>106.1291724544574</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>13.37241646996089</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>354.5195226832442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>88.44229822856907</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>71.98153210089535</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.9623005163829</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>91.66636605273969</v>
       </c>
       <c r="X16" t="n">
-        <v>25.78734729249726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>238.3072970416163</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>38.95525409458268</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>102.3739644559498</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8518831495031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>108.3106907504111</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>100.7197280522386</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>217.6587144826198</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>5.943178786505091</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,19 +3237,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>180.1003471321691</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>104.7950049175972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>11.76284745948055</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>105.1820732698676</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>28.87857325623944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>70.30034983101397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,13 +4188,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.00369384633101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1887.813801820605</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
         <v>1590.416669135309</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820605</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,40 +4415,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443.0505103572859</v>
+        <v>1612.736483535256</v>
       </c>
       <c r="C4" t="n">
-        <v>274.114327429379</v>
+        <v>1612.736483535256</v>
       </c>
       <c r="D4" t="n">
-        <v>274.114327429379</v>
+        <v>1612.736483535256</v>
       </c>
       <c r="E4" t="n">
-        <v>274.114327429379</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="F4" t="n">
-        <v>274.114327429379</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="G4" t="n">
-        <v>274.114327429379</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="H4" t="n">
-        <v>127.8971406472368</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3308.175638297655</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3116.489754124481</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2894.723138694008</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2605.620271819651</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>2350.935783613764</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>2061.518613576804</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4915543310558</v>
+        <v>1833.529062678786</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6989751875257</v>
+        <v>1612.736483535256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150261</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>942.9472709150261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1402.738380862829</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1402.738380862829</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.321210825868</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X7" t="n">
-        <v>885.3316599278505</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1192.9382557295</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>834.6725571227498</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>834.6725571227498</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.8136871311516</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>453.8775042032447</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>303.760864790909</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>155.8477712085158</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>155.8477712085158</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>155.8477712085158</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.8136871311516</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5506,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2490.32382148308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>702.4944101284095</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.935454102179</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1428749586493</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>3299.055326488948</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>3130.119143561041</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>2980.002504148706</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>2832.089410566312</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>3929.485921360735</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>3701.496370462718</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>3480.703791319188</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6211,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6315,16 +6317,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3047.734188001555</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="C28" t="n">
-        <v>2878.798005073648</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
         <v>2419.773435218391</v>
@@ -6415,19 +6417,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>4001.47386197266</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>3746.789373766773</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>3457.372203729812</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>3229.382652831795</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y28" t="n">
-        <v>3229.382652831795</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6454,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,25 +6466,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6491,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3012.408157764291</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868832</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>3642.838752636078</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3414.849201738061</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.056622594531</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4285.815356953929</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>3791.319359123406</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225389</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081859</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6920,28 +6922,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.672861378251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.83890577277</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>3658.217393399322</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>4033.948342528643</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3012.408157764291</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C43" t="n">
-        <v>3012.408157764291</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673039</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W43" t="n">
-        <v>3642.838752636078</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X43" t="n">
-        <v>3414.849201738061</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y43" t="n">
-        <v>3194.056622594531</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738061</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>3355.249510984192</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.8696796655544</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>86.4655746247236</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.8566322838513</v>
       </c>
       <c r="X16" t="n">
-        <v>199.9223080965399</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>13.83034628221174</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>186.7544012944545</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>43.04708356698148</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>73.85777223953406</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>178.2123075861799</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>66.52709304638924</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>68.52575990662439</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>161.3036423121227</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>181.7279934189938</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.84421273177699</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>257.6444250803515</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>78.31512318719838</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>159.5809595057638</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818182</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26436,13 +26438,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973355</v>
+        <v>-891945.2695973366</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302567</v>
+        <v>436799.4761302569</v>
       </c>
       <c r="D6" t="n">
         <v>436799.4761302567</v>
       </c>
       <c r="E6" t="n">
-        <v>186616.7029466745</v>
+        <v>186616.702946674</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540297</v>
+        <v>512029.1647540295</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540297</v>
+        <v>512029.1647540295</v>
       </c>
       <c r="H6" t="n">
         <v>512029.1647540298</v>
@@ -26546,19 +26548,19 @@
         <v>294497.962356752</v>
       </c>
       <c r="K6" t="n">
+        <v>512029.1647540297</v>
+      </c>
+      <c r="L6" t="n">
         <v>512029.1647540295</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>426974.1368185178</v>
+      </c>
+      <c r="N6" t="n">
         <v>512029.1647540297</v>
       </c>
-      <c r="M6" t="n">
-        <v>426974.1368185179</v>
-      </c>
-      <c r="N6" t="n">
-        <v>512029.1647540298</v>
-      </c>
       <c r="O6" t="n">
-        <v>512029.1647540298</v>
+        <v>512029.1647540297</v>
       </c>
       <c r="P6" t="n">
         <v>512029.1647540297</v>
@@ -26692,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.328593677619e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.328593677619e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.328593677619e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>70.84973041256438</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>186.0815621395567</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>35.58124643693522</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2420326896588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>168.0688818921491</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>265.1513599298638</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>112.4554808976374</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>393.5036292717505</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.21157799522479</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>56.31271668575171</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28521,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>5.055797415458992e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.519365296858341e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>490.507583235568</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32245,7 +32247,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460029</v>
@@ -32309,16 +32311,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201436</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,10 +32557,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319844</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>428.6149474293401</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>510.867923325072</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,28 +34447,28 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556938</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060505</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,7 +35895,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402694</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875399</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>290.0605676494659</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>379.5262112417387</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2481713.530848462</v>
+        <v>2477700.92083447</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>3.657500457873209</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292592</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>183.6495385389123</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.25588147840217</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>45.68928226515079</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>58.92805047991983</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.1690567639045</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>80.00124118081781</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.1291724544574</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.37241646996089</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.982187302754</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586363</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>71.98153210089535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>62.14989839348875</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>91.66636605273969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>238.3072970416163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3739644559498</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>108.3106907504111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>100.7197280522386</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
-        <v>11.76284745948055</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>124.4121185570315</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609172</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792697</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522582</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2051.278283189675</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1612.736483535256</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C4" t="n">
-        <v>1612.736483535256</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>1612.736483535256</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952863</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952863</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952863</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952863</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3308.175638297655</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3116.489754124481</v>
+        <v>1791.313300679202</v>
       </c>
       <c r="T4" t="n">
-        <v>2894.723138694008</v>
+        <v>1791.313300679202</v>
       </c>
       <c r="U4" t="n">
-        <v>2605.620271819651</v>
+        <v>1502.210433804846</v>
       </c>
       <c r="V4" t="n">
-        <v>2350.935783613764</v>
+        <v>1247.525945598959</v>
       </c>
       <c r="W4" t="n">
-        <v>2061.518613576804</v>
+        <v>958.1087755619981</v>
       </c>
       <c r="X4" t="n">
-        <v>1833.529062678786</v>
+        <v>958.1087755619981</v>
       </c>
       <c r="Y4" t="n">
-        <v>1612.736483535256</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348092</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000976</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669912</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1192.9382557295</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>834.6725571227498</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>834.6725571227498</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>313.5427886871661</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>165.629695104773</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="11">
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703114</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854712</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648825</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.109076706663</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.119525808646</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,25 +5740,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3299.055326488948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3130.119143561041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2980.002504148706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2832.089410566312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4218.903091397696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3929.485921360735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3701.496370462718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3480.703791319188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511905</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6305,19 +6305,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2985.713220456422</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C28" t="n">
-        <v>2883.976121413757</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.859482001421</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X28" t="n">
-        <v>3388.154264430192</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y28" t="n">
-        <v>3167.361685286662</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>793.6995478537118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>643.582908441376</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.8692823226941</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947872</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1562.717047231442</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1273.299877194481</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1045.310326296464</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>824.5177471529338</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86.4655746247236</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>194.8566322838513</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>13.83034628221174</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>43.04708356698148</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>66.52709304638924</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
-        <v>134.6711151870886</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="13">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448192</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448193</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.660247097694083e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.014118081206107e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>91573.95495316936</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.9201818182</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26438,13 +26438,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973366</v>
+        <v>-891945.2695973361</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302569</v>
+        <v>436799.4761302574</v>
       </c>
       <c r="D6" t="n">
-        <v>436799.4761302567</v>
+        <v>436799.4761302559</v>
       </c>
       <c r="E6" t="n">
-        <v>186616.702946674</v>
+        <v>186269.3236923182</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996724</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996725</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540298</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="I6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="J6" t="n">
-        <v>294497.962356752</v>
+        <v>294150.5831023952</v>
       </c>
       <c r="K6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996729</v>
       </c>
       <c r="L6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996725</v>
       </c>
       <c r="M6" t="n">
-        <v>426974.1368185178</v>
+        <v>426626.757564161</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996725</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.328593677619e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.328593677619e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.328593677619e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>379.0763412056074</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>186.0815621395567</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.67627119164516</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>144.0797430662911</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.210597024795</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.4554808976374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.5036292717505</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.255751353299615</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>47.29464513706762</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>214.5414662356957</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.055797415458992e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29565,10 +29565,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,16 +33268,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060505</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2477700.92083447</v>
+        <v>2479461.451137255</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.657500457873209</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>27.00971856836598</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>45.68928226515079</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>238.7813195717444</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>58.92805047991983</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>52.07852635745806</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>80.00124118081781</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>164.6686649558534</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>383.982187302754</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>98.12640288586363</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>36.43062059490413</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083792</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721642</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4354,10 +4354,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189675</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4603107317583</v>
+        <v>2419.881820789282</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>2250.945637861375</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>2100.828998449039</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1952.915904866646</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1806.025957368736</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1638.323120743455</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1492.105933961313</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1791.313300679202</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1791.313300679202</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>1502.210433804846</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="V4" t="n">
-        <v>1247.525945598959</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="W4" t="n">
-        <v>958.1087755619981</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="X4" t="n">
-        <v>958.1087755619981</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.1087755619981</v>
+        <v>2601.530285619522</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>119.1166885104239</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1624.71859813194</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2717.920280988803</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993394</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995018</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995018</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>313.5427886871661</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>165.629695104773</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214137</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.50719300825</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
         <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732717</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297416</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,43 +6694,43 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.003342051665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="10">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.660247097694083e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.014118081206107e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26444,13 +26444,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973361</v>
+        <v>-891945.269597336</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302574</v>
+        <v>436799.4761302571</v>
       </c>
       <c r="D6" t="n">
-        <v>436799.4761302559</v>
+        <v>436799.4761302567</v>
       </c>
       <c r="E6" t="n">
-        <v>186269.3236923182</v>
+        <v>186581.9650212385</v>
       </c>
       <c r="F6" t="n">
-        <v>511681.7854996724</v>
+        <v>511994.4268285941</v>
       </c>
       <c r="G6" t="n">
-        <v>511681.7854996725</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="H6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285941</v>
       </c>
       <c r="I6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="J6" t="n">
-        <v>294150.5831023952</v>
+        <v>294463.2244313164</v>
       </c>
       <c r="K6" t="n">
-        <v>511681.7854996729</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="L6" t="n">
-        <v>511681.7854996725</v>
+        <v>511994.4268285937</v>
       </c>
       <c r="M6" t="n">
-        <v>426626.757564161</v>
+        <v>426939.398893082</v>
       </c>
       <c r="N6" t="n">
-        <v>511681.7854996725</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="O6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="P6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285938</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.0763412056074</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>69.34270184147211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>144.0797430662911</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.4915721992631</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>290.3129182374932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>92.67648855686272</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>206.210597024795</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>39.24930518376678</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.255751353299615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>47.29464513706762</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -29562,13 +29562,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>479.6444630806902</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>337.5104291586719</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
